--- a/02062025-delhi-aiims-bsc-nursing-prepatory-data-set.xlsx
+++ b/02062025-delhi-aiims-bsc-nursing-prepatory-data-set.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayyed\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Github\student_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E11720F-2D2A-4E8C-83AC-6426A7087C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33AF110-C713-43A7-8862-6E04DA5780BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5A00A1E-0852-4B43-B760-DC16954E0468}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -117,7 +117,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -225,7 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -233,22 +233,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -307,7 +303,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -324,7 +320,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -357,7 +353,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -635,7 +631,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2884,6 +2880,9 @@
       <c:pivotFmt>
         <c:idx val="40"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2973,6 +2972,47 @@
             <a:effectLst/>
           </c:spPr>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="42"/>
@@ -3000,10 +3040,54 @@
             <a:effectLst/>
           </c:spPr>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="43"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3064,6 +3148,47 @@
             <a:effectLst/>
           </c:spPr>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -5533,7 +5658,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0BB64A3A-EAD1-4503-AC92-B0D66CE121A6}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0BB64A3A-EAD1-4503-AC92-B0D66CE121A6}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A1:E11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -6352,8 +6477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345E9B88-8FA7-480F-BC36-23D2BE33213E}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A73"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="113" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6420,36 +6545,36 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="4">
         <v>45785</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="5">
         <v>100</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="5">
         <v>68</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="5">
         <v>14</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="5">
         <v>17</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="7">
         <f>IF(AND(ISNUMBER(E2), ISNUMBER(F2), ISNUMBER(G2)), E2 - (F2* 1/3), "")</f>
         <v>63.333333333333336</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="5">
         <f t="shared" ref="I2:I20" si="0">D2*1</f>
         <v>100</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="7">
         <f>(H2/I2)*100</f>
         <v>63.333333333333329</v>
       </c>
@@ -6471,34 +6596,34 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="13">
+      <c r="A3" s="12"/>
+      <c r="B3" s="4">
         <v>45785</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="5">
         <v>37</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="5">
         <v>29</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="5">
         <v>6</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="5">
         <v>2</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="7">
         <f t="shared" ref="H3:H7" si="1">IF(AND(ISNUMBER(E3), ISNUMBER(F3), ISNUMBER(G3)), E3 - (F3* 1/3), "")</f>
         <v>27</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="7">
         <f>(H3/I3)*100</f>
         <v>72.972972972972968</v>
       </c>
@@ -6521,41 +6646,41 @@
       <c r="P3" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="10">
         <f>AVERAGE(L2:L16)</f>
         <v>0.84108975733975733</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="13">
+      <c r="A4" s="12"/>
+      <c r="B4" s="4">
         <v>45785</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="5">
         <v>30</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="5">
         <v>25</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="5">
         <v>4</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="5">
         <v>1</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="7">
         <f t="shared" si="1"/>
         <v>23.666666666666668</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J4" s="16">
-        <f t="shared" ref="J3:J7" si="2">(H4/I4)*100</f>
+      <c r="J4" s="7">
+        <f t="shared" ref="J4:J7" si="2">(H4/I4)*100</f>
         <v>78.8888888888889</v>
       </c>
       <c r="K4" s="7">
@@ -6577,42 +6702,42 @@
       <c r="P4" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="10">
         <f>AVERAGE(M2:M16)</f>
         <v>0.91119676269676286</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="4">
         <v>45786</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D5">
         <v>32</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="5">
         <v>29</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="5">
         <v>2</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>28.666666666666668</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="7">
         <f t="shared" si="2"/>
         <v>89.583333333333343</v>
       </c>
@@ -6635,40 +6760,40 @@
       <c r="P5" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="10">
         <f>AVERAGE(N2:N16)</f>
         <v>7.0107005357005356E-2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="13">
+      <c r="A6" s="12"/>
+      <c r="B6" s="4">
         <v>45786</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="5">
         <v>26</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="5">
         <v>23</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="5">
         <v>2</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="5">
         <v>1</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="7">
         <f t="shared" si="1"/>
         <v>22.333333333333332</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="7">
         <f t="shared" si="2"/>
         <v>85.897435897435898</v>
       </c>
@@ -6690,34 +6815,34 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="13">
+      <c r="A7" s="12"/>
+      <c r="B7" s="4">
         <v>45786</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="5">
         <v>30</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="5">
         <v>30</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="5">
         <v>0</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="5">
         <v>0</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="7">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -6739,36 +6864,36 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="12">
         <v>3</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="4">
         <v>45787</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="5">
         <v>36</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="5">
         <v>31</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="5">
         <v>2</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="5">
         <v>3</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="7">
         <f t="shared" ref="H8:H20" si="3">IF(AND(ISNUMBER(E8), ISNUMBER(F8), ISNUMBER(G8)), E8 - (F8* 1/3), "")</f>
         <v>30.333333333333332</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="7">
         <f t="shared" ref="J8:J20" si="4">(H8/I8)*100</f>
         <v>84.259259259259252</v>
       </c>
@@ -6790,34 +6915,34 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="13">
+      <c r="A9" s="12"/>
+      <c r="B9" s="4">
         <v>45787</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="5">
         <v>42</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="5">
         <v>37</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="5">
         <v>0</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="5">
         <v>5</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="7">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="7">
         <f t="shared" si="4"/>
         <v>88.095238095238088</v>
       </c>
@@ -6839,34 +6964,34 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="13">
+      <c r="A10" s="12"/>
+      <c r="B10" s="4">
         <v>45787</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="5">
         <v>50</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="5">
         <v>48</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="5">
         <v>1</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="5">
         <v>1</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="7">
         <f t="shared" si="3"/>
         <v>47.666666666666664</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="5">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="7">
         <f t="shared" si="4"/>
         <v>95.333333333333329</v>
       </c>
@@ -6888,36 +7013,36 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="A11" s="12">
         <v>4</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="4">
         <v>45788</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="5">
         <v>26</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="5">
         <v>25</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="5">
         <v>0</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="5">
         <v>1</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="7">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="7">
         <f t="shared" si="4"/>
         <v>96.15384615384616</v>
       </c>
@@ -6939,34 +7064,34 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="13">
+      <c r="A12" s="12"/>
+      <c r="B12" s="4">
         <v>45788</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="5">
         <v>42</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="5">
         <v>31</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="5">
         <v>7</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="5">
         <v>4</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="7">
         <f t="shared" si="3"/>
         <v>28.666666666666668</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="7">
         <f t="shared" si="4"/>
         <v>68.253968253968253</v>
       </c>
@@ -6988,34 +7113,34 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="13">
+      <c r="A13" s="12"/>
+      <c r="B13" s="4">
         <v>45788</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="5">
         <v>50</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="5">
         <v>48</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="5">
         <v>0</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="5">
         <v>2</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="7">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="5">
         <f>D13*1</f>
         <v>50</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="7">
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
@@ -7037,36 +7162,36 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="A14" s="12">
         <v>5</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="4">
         <v>45789</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="5">
         <v>30</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="5">
         <v>18</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="5">
         <v>2</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="5">
         <v>10</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="7">
         <f t="shared" si="3"/>
         <v>17.333333333333332</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="5">
         <f>D14*1</f>
         <v>30</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="7">
         <f t="shared" si="4"/>
         <v>57.777777777777771</v>
       </c>
@@ -7088,34 +7213,34 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="13">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4">
         <v>45789</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="5">
         <v>42</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="5">
         <v>28</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="5">
         <v>5</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="5">
         <v>9</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="7">
         <f t="shared" si="3"/>
         <v>26.333333333333332</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="7">
         <f t="shared" si="4"/>
         <v>62.698412698412696</v>
       </c>
@@ -7137,34 +7262,34 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="13">
+      <c r="A16" s="12"/>
+      <c r="B16" s="4">
         <v>45789</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="5">
         <v>50</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="5">
         <v>45</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="5">
         <v>4</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="5">
         <v>1</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="7">
         <f t="shared" si="3"/>
         <v>43.666666666666664</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="5">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="7">
         <f t="shared" si="4"/>
         <v>87.333333333333329</v>
       </c>
@@ -7186,7 +7311,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="A17" s="12">
         <v>6</v>
       </c>
       <c r="B17" s="4">
@@ -7237,7 +7362,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="4">
         <v>45790</v>
       </c>
@@ -7286,48 +7411,56 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="4">
         <v>45790</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="7" t="str">
+      <c r="D19" s="5">
+        <v>50</v>
+      </c>
+      <c r="E19" s="5">
+        <v>48</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
         <f t="shared" si="3"/>
-        <v/>
+        <v>47.333333333333336</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="e">
+        <v>50</v>
+      </c>
+      <c r="J19" s="7">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K19" s="7" t="e">
+        <v>94.666666666666671</v>
+      </c>
+      <c r="K19" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L19" s="6" t="e">
+        <v>28.400000000000002</v>
+      </c>
+      <c r="L19" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="6" t="e">
+        <v>0.96</v>
+      </c>
+      <c r="M19" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="N19" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
+      <c r="A20" s="11">
         <v>7</v>
       </c>
       <c r="B20" s="4">
@@ -7336,123 +7469,147 @@
       <c r="C20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="7" t="str">
+      <c r="D20" s="5">
+        <v>27</v>
+      </c>
+      <c r="E20" s="5">
+        <v>19</v>
+      </c>
+      <c r="F20" s="5">
+        <v>3</v>
+      </c>
+      <c r="G20" s="5">
+        <v>5</v>
+      </c>
+      <c r="H20" s="7">
         <f t="shared" si="3"/>
-        <v/>
+        <v>18</v>
       </c>
       <c r="I20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="e">
+        <v>27</v>
+      </c>
+      <c r="J20" s="7">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K20" s="7" t="e">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="K20" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L20" s="6" t="e">
+        <v>20</v>
+      </c>
+      <c r="L20" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="6" t="e">
+        <v>0.70370370370370372</v>
+      </c>
+      <c r="M20" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="6" t="e">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="N20" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="4">
         <v>45791</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="7" t="str">
+      <c r="D21" s="5">
+        <v>55</v>
+      </c>
+      <c r="E21" s="5">
+        <v>50</v>
+      </c>
+      <c r="F21" s="5">
+        <v>3</v>
+      </c>
+      <c r="G21" s="5">
+        <v>2</v>
+      </c>
+      <c r="H21" s="7">
         <f t="shared" ref="H21:H22" si="5">IF(AND(ISNUMBER(E21), ISNUMBER(F21), ISNUMBER(G21)), E21 - (F21* 1/3), "")</f>
-        <v/>
+        <v>49</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" ref="I21:I22" si="6">D21*1</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="e">
+        <v>55</v>
+      </c>
+      <c r="J21" s="7">
         <f t="shared" ref="J21:J22" si="7">(H21/I21)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K21" s="7" t="e">
+        <v>89.090909090909093</v>
+      </c>
+      <c r="K21" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L21" s="6" t="e">
+        <v>26.727272727272727</v>
+      </c>
+      <c r="L21" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="6" t="e">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="M21" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="6" t="e">
+        <v>0.96363636363636362</v>
+      </c>
+      <c r="N21" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>5.4545454545454543E-2</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="4">
         <v>45791</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="7" t="str">
+      <c r="D22" s="5">
+        <v>50</v>
+      </c>
+      <c r="E22" s="5">
+        <v>47</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7">
         <f t="shared" si="5"/>
-        <v/>
+        <v>46.333333333333336</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="e">
+        <v>50</v>
+      </c>
+      <c r="J22" s="7">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K22" s="7" t="e">
+        <v>92.666666666666671</v>
+      </c>
+      <c r="K22" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L22" s="6" t="e">
+        <v>27.800000000000004</v>
+      </c>
+      <c r="L22" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" s="6" t="e">
+        <v>0.94</v>
+      </c>
+      <c r="M22" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="6" t="e">
+        <v>0.98</v>
+      </c>
+      <c r="N22" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
+      <c r="A23" s="11">
         <v>8</v>
       </c>
       <c r="B23" s="4">
@@ -7495,7 +7652,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="4">
         <v>45792</v>
       </c>
@@ -7536,7 +7693,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="4">
         <v>45792</v>
       </c>
@@ -7577,7 +7734,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="15">
+      <c r="A26" s="11">
         <v>9</v>
       </c>
       <c r="B26" s="4">
@@ -7618,7 +7775,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="4">
         <v>45793</v>
       </c>
@@ -7657,7 +7814,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="4">
         <v>45793</v>
       </c>
@@ -7696,7 +7853,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="15">
+      <c r="A29" s="11">
         <v>10</v>
       </c>
       <c r="B29" s="4">
@@ -7737,7 +7894,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="4">
         <v>45794</v>
       </c>
@@ -7776,7 +7933,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="4">
         <v>45794</v>
       </c>
@@ -7815,7 +7972,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="15">
+      <c r="A32" s="11">
         <v>11</v>
       </c>
       <c r="B32" s="4">
@@ -7856,7 +8013,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="4">
         <v>45795</v>
       </c>
@@ -7895,7 +8052,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="4">
         <v>45795</v>
       </c>
@@ -7934,7 +8091,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="15">
+      <c r="A35" s="11">
         <v>12</v>
       </c>
       <c r="B35" s="4">
@@ -7975,7 +8132,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="4">
         <v>45796</v>
       </c>
@@ -8014,7 +8171,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="4">
         <v>45796</v>
       </c>
@@ -8053,7 +8210,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="15">
+      <c r="A38" s="11">
         <v>13</v>
       </c>
       <c r="B38" s="4">
@@ -8094,7 +8251,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="4">
         <v>45797</v>
       </c>
@@ -8133,7 +8290,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="4">
         <v>45797</v>
       </c>
@@ -8172,7 +8329,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="15">
+      <c r="A41" s="11">
         <v>14</v>
       </c>
       <c r="B41" s="4">
@@ -8213,7 +8370,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="4">
         <v>45798</v>
       </c>
@@ -8252,7 +8409,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="4">
         <v>45798</v>
       </c>
@@ -8291,7 +8448,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="15">
+      <c r="A44" s="11">
         <v>15</v>
       </c>
       <c r="B44" s="4">
@@ -8332,7 +8489,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="4">
         <v>45799</v>
       </c>
@@ -8371,7 +8528,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="4">
         <v>45799</v>
       </c>
@@ -8410,7 +8567,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="15">
+      <c r="A47" s="11">
         <v>16</v>
       </c>
       <c r="B47" s="4">
@@ -8451,7 +8608,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="4">
         <v>45800</v>
       </c>
@@ -8490,7 +8647,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="4">
         <v>45800</v>
       </c>
@@ -8529,7 +8686,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="15">
+      <c r="A50" s="11">
         <v>17</v>
       </c>
       <c r="B50" s="4">
@@ -8570,7 +8727,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
+      <c r="A51" s="11"/>
       <c r="B51" s="4">
         <v>45801</v>
       </c>
@@ -8609,7 +8766,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
+      <c r="A52" s="11"/>
       <c r="B52" s="4">
         <v>45801</v>
       </c>
@@ -8648,7 +8805,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="15">
+      <c r="A53" s="11">
         <v>18</v>
       </c>
       <c r="B53" s="4">
@@ -8689,7 +8846,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="15"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="4">
         <v>45802</v>
       </c>
@@ -8728,7 +8885,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="15"/>
+      <c r="A55" s="11"/>
       <c r="B55" s="4">
         <v>45802</v>
       </c>
@@ -8767,7 +8924,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="15">
+      <c r="A56" s="11">
         <v>19</v>
       </c>
       <c r="B56" s="4">
@@ -8808,7 +8965,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
+      <c r="A57" s="11"/>
       <c r="B57" s="4">
         <v>45803</v>
       </c>
@@ -8847,7 +9004,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="15"/>
+      <c r="A58" s="11"/>
       <c r="B58" s="4">
         <v>45803</v>
       </c>
@@ -8886,7 +9043,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="15">
+      <c r="A59" s="11">
         <v>20</v>
       </c>
       <c r="B59" s="4">
@@ -8927,7 +9084,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="15"/>
+      <c r="A60" s="11"/>
       <c r="B60" s="4">
         <v>45804</v>
       </c>
@@ -8966,7 +9123,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="15"/>
+      <c r="A61" s="11"/>
       <c r="B61" s="4">
         <v>45804</v>
       </c>
@@ -9005,7 +9162,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="15">
+      <c r="A62" s="11">
         <v>21</v>
       </c>
       <c r="B62" s="4">
@@ -9046,7 +9203,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="15"/>
+      <c r="A63" s="11"/>
       <c r="B63" s="4">
         <v>45805</v>
       </c>
@@ -9085,7 +9242,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="15"/>
+      <c r="A64" s="11"/>
       <c r="B64" s="4">
         <v>45805</v>
       </c>
@@ -9124,7 +9281,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="15">
+      <c r="A65" s="11">
         <v>22</v>
       </c>
       <c r="B65" s="4">
@@ -9165,7 +9322,7 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="15"/>
+      <c r="A66" s="11"/>
       <c r="B66" s="4">
         <v>45806</v>
       </c>
@@ -9204,7 +9361,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="15"/>
+      <c r="A67" s="11"/>
       <c r="B67" s="4">
         <v>45806</v>
       </c>
@@ -9243,7 +9400,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" s="15">
+      <c r="A68" s="11">
         <v>23</v>
       </c>
       <c r="B68" s="4">
@@ -9284,7 +9441,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="15"/>
+      <c r="A69" s="11"/>
       <c r="B69" s="4">
         <v>45807</v>
       </c>
@@ -9323,7 +9480,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="15"/>
+      <c r="A70" s="11"/>
       <c r="B70" s="4">
         <v>45807</v>
       </c>
@@ -9362,7 +9519,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71" s="15">
+      <c r="A71" s="11">
         <v>24</v>
       </c>
       <c r="B71" s="4">
@@ -9403,7 +9560,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A72" s="15"/>
+      <c r="A72" s="11"/>
       <c r="B72" s="4">
         <v>45808</v>
       </c>
@@ -9442,7 +9599,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="15"/>
+      <c r="A73" s="11"/>
       <c r="B73" s="4">
         <v>45808</v>
       </c>
@@ -9567,16 +9724,16 @@
       <c r="A3" s="9">
         <v>45785</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3">
         <v>23.666666666666668</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
         <v>21.891891891891891</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3">
         <v>19</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3">
         <v>64.558558558558559</v>
       </c>
     </row>
@@ -9584,16 +9741,16 @@
       <c r="A4" s="9">
         <v>45786</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <v>30</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>25.769230769230766</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4">
         <v>26.875</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4">
         <v>82.644230769230774</v>
       </c>
     </row>
@@ -9601,16 +9758,16 @@
       <c r="A5" s="9">
         <v>45787</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>28.599999999999998</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>26.428571428571427</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5">
         <v>25.277777777777779</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5">
         <v>80.306349206349211</v>
       </c>
     </row>
@@ -9618,16 +9775,16 @@
       <c r="A6" s="9">
         <v>45788</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <v>28.799999999999997</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6">
         <v>20.476190476190478</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6">
         <v>28.846153846153847</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6">
         <v>78.122344322344333</v>
       </c>
     </row>
@@ -9635,16 +9792,16 @@
       <c r="A7" s="9">
         <v>45789</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7">
         <v>26.2</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7">
         <v>18.80952380952381</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7">
         <v>17.333333333333332</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7">
         <v>62.342857142857142</v>
       </c>
     </row>
@@ -9652,16 +9809,16 @@
       <c r="A8" s="9">
         <v>45790</v>
       </c>
-      <c r="B8" s="10" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C8" s="10" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D8" s="10" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E8" s="10" t="e">
+      <c r="B8" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E8" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -9669,16 +9826,16 @@
       <c r="A9" s="9">
         <v>45791</v>
       </c>
-      <c r="B9" s="10" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C9" s="10" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D9" s="10" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E9" s="10" t="e">
+      <c r="B9" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C9" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E9" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -9686,16 +9843,16 @@
       <c r="A10" s="9">
         <v>45792</v>
       </c>
-      <c r="B10" s="10" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C10" s="10" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D10" s="10" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E10" s="10" t="e">
+      <c r="B10" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E10" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -9703,16 +9860,16 @@
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="10" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C11" s="10" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D11" s="10" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E11" s="10" t="e">
+      <c r="B11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E11" t="e">
         <v>#VALUE!</v>
       </c>
     </row>

--- a/02062025-delhi-aiims-bsc-nursing-prepatory-data-set.xlsx
+++ b/02062025-delhi-aiims-bsc-nursing-prepatory-data-set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Github\student_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33AF110-C713-43A7-8862-6E04DA5780BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8B8CFD-B557-4755-830B-E23F1A88EF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5A00A1E-0852-4B43-B760-DC16954E0468}"/>
   </bookViews>
@@ -9639,6 +9639,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A70"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -9651,18 +9663,6 @@
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/02062025-delhi-aiims-bsc-nursing-prepatory-data-set.xlsx
+++ b/02062025-delhi-aiims-bsc-nursing-prepatory-data-set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Github\student_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8B8CFD-B557-4755-830B-E23F1A88EF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D74C422-0B52-46FD-9264-C790CFB53263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5A00A1E-0852-4B43-B760-DC16954E0468}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>date</t>
   </si>
@@ -6477,8 +6477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345E9B88-8FA7-480F-BC36-23D2BE33213E}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="113" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="113" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7618,37 +7618,45 @@
       <c r="C23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="7" t="str">
-        <f t="shared" ref="H23:H29" si="8">IF(AND(ISNUMBER(E23), ISNUMBER(F23), ISNUMBER(G23)), E23 - (F23* 1/3), "")</f>
-        <v/>
+      <c r="D23" s="5">
+        <v>24</v>
+      </c>
+      <c r="E23" s="5">
+        <v>19</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>4</v>
+      </c>
+      <c r="H23" s="7">
+        <f>IF(AND(ISNUMBER(E23), ISNUMBER(F23), ISNUMBER(G23)), E23 - (F23* 1/3), "")</f>
+        <v>18.666666666666668</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" ref="I23:I29" si="9">D23*1</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="e">
-        <f t="shared" ref="J23:J29" si="10">(H23/I23)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K23" s="7" t="e">
+        <f>D23*1</f>
+        <v>24</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" ref="J23:J29" si="8">(H23/I23)*100</f>
+        <v>77.777777777777786</v>
+      </c>
+      <c r="K23" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L23" s="6" t="e">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="L23" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" s="6" t="e">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="M23" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="6" t="e">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N23" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -7659,37 +7667,45 @@
       <c r="C24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="7" t="str">
+      <c r="D24" s="5">
+        <v>18</v>
+      </c>
+      <c r="E24" s="5">
+        <v>18</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <f>IF(AND(ISNUMBER(E24), ISNUMBER(F24), ISNUMBER(G24)), E24 - (F24* 1/3), "")</f>
+        <v>18</v>
+      </c>
+      <c r="I24" s="5">
+        <f>D24*1</f>
+        <v>18</v>
+      </c>
+      <c r="J24" s="7">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I24" s="5">
-        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="K24" s="7">
+        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
+        <v>30</v>
+      </c>
+      <c r="L24" s="6">
+        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
+        <v>1</v>
+      </c>
+      <c r="M24" s="6">
+        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
+        <v>1</v>
+      </c>
+      <c r="N24" s="6">
+        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
         <v>0</v>
-      </c>
-      <c r="J24" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K24" s="7" t="e">
-        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L24" s="6" t="e">
-        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" s="6" t="e">
-        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N24" s="6" t="e">
-        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -7705,15 +7721,15 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="7" t="str">
+        <f t="shared" ref="H25:H29" si="9">IF(AND(ISNUMBER(E25), ISNUMBER(F25), ISNUMBER(G25)), E25 - (F25* 1/3), "")</f>
+        <v/>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" ref="I25:I29" si="10">D25*1</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="e">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I25" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="e">
-        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="K25" s="7" t="e">
@@ -7740,38 +7756,48 @@
       <c r="B26" s="4">
         <v>45793</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="7" t="str">
+      <c r="C26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5">
+        <v>45</v>
+      </c>
+      <c r="E26" s="5">
+        <v>37</v>
+      </c>
+      <c r="F26" s="5">
+        <v>4</v>
+      </c>
+      <c r="G26" s="5">
+        <v>4</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="9"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="J26" s="7">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I26" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K26" s="7" t="e">
+        <v>79.259259259259252</v>
+      </c>
+      <c r="K26" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L26" s="6" t="e">
+        <v>23.777777777777775</v>
+      </c>
+      <c r="L26" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="6" t="e">
+        <v>0.82222222222222219</v>
+      </c>
+      <c r="M26" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="6" t="e">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="N26" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>8.8888888888888892E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -7779,21 +7805,23 @@
       <c r="B27" s="4">
         <v>45793</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="e">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I27" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="e">
-        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="K27" s="7" t="e">
@@ -7818,21 +7846,23 @@
       <c r="B28" s="4">
         <v>45793</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="e">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I28" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="e">
-        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="K28" s="7" t="e">
@@ -7865,15 +7895,15 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="e">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I29" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="e">
-        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="K29" s="7" t="e">
@@ -9639,6 +9669,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A41:A43"/>
@@ -9651,18 +9693,6 @@
     <mergeCell ref="A62:A64"/>
     <mergeCell ref="A65:A67"/>
     <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/02062025-delhi-aiims-bsc-nursing-prepatory-data-set.xlsx
+++ b/02062025-delhi-aiims-bsc-nursing-prepatory-data-set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Github\student_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D74C422-0B52-46FD-9264-C790CFB53263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40D670F-0A20-49AC-83E4-FD3A96F93C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5A00A1E-0852-4B43-B760-DC16954E0468}"/>
   </bookViews>
@@ -6477,8 +6477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345E9B88-8FA7-480F-BC36-23D2BE33213E}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="113" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="113" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7716,37 +7716,45 @@
       <c r="C25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="7" t="str">
+      <c r="D25" s="5">
+        <v>50</v>
+      </c>
+      <c r="E25" s="5">
+        <v>46</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>4</v>
+      </c>
+      <c r="H25" s="7">
         <f t="shared" ref="H25:H29" si="9">IF(AND(ISNUMBER(E25), ISNUMBER(F25), ISNUMBER(G25)), E25 - (F25* 1/3), "")</f>
-        <v/>
+        <v>46</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" ref="I25:I29" si="10">D25*1</f>
+        <v>50</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="K25" s="7">
+        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
+        <v>27.6</v>
+      </c>
+      <c r="L25" s="6">
+        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
+        <v>0.92</v>
+      </c>
+      <c r="M25" s="6">
+        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
+        <v>0.92</v>
+      </c>
+      <c r="N25" s="6">
+        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
         <v>0</v>
-      </c>
-      <c r="J25" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K25" s="7" t="e">
-        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L25" s="6" t="e">
-        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="6" t="e">
-        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" s="6" t="e">
-        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -7808,37 +7816,45 @@
       <c r="C27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="7" t="str">
+      <c r="D27" s="5">
+        <v>25</v>
+      </c>
+      <c r="E27" s="5">
+        <v>23</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>2</v>
+      </c>
+      <c r="H27" s="7">
         <f t="shared" si="9"/>
-        <v/>
+        <v>23</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="K27" s="7">
+        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
+        <v>27.6</v>
+      </c>
+      <c r="L27" s="6">
+        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
+        <v>0.92</v>
+      </c>
+      <c r="M27" s="6">
+        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
+        <v>0.92</v>
+      </c>
+      <c r="N27" s="6">
+        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
         <v>0</v>
-      </c>
-      <c r="J27" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K27" s="7" t="e">
-        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L27" s="6" t="e">
-        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="6" t="e">
-        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="6" t="e">
-        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -7849,37 +7865,45 @@
       <c r="C28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="7" t="str">
+      <c r="D28" s="5">
+        <v>50</v>
+      </c>
+      <c r="E28" s="5">
+        <v>49</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7">
         <f t="shared" si="9"/>
-        <v/>
+        <v>49</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="J28" s="7">
+        <f t="shared" si="8"/>
+        <v>98</v>
+      </c>
+      <c r="K28" s="7">
+        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
+        <v>29.4</v>
+      </c>
+      <c r="L28" s="6">
+        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
+        <v>0.98</v>
+      </c>
+      <c r="M28" s="6">
+        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
+        <v>0.98</v>
+      </c>
+      <c r="N28" s="6">
+        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
         <v>0</v>
-      </c>
-      <c r="J28" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K28" s="7" t="e">
-        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L28" s="6" t="e">
-        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="6" t="e">
-        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="6" t="e">
-        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -9669,6 +9693,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A70"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -9681,18 +9717,6 @@
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/02062025-delhi-aiims-bsc-nursing-prepatory-data-set.xlsx
+++ b/02062025-delhi-aiims-bsc-nursing-prepatory-data-set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Github\student_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40D670F-0A20-49AC-83E4-FD3A96F93C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C33E736-9579-488B-80F5-D64AC82EC923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5A00A1E-0852-4B43-B760-DC16954E0468}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>date</t>
   </si>
@@ -6478,7 +6478,7 @@
   <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="113" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7913,38 +7913,48 @@
       <c r="B29" s="4">
         <v>45794</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="7" t="str">
+      <c r="C29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="5">
+        <v>48</v>
+      </c>
+      <c r="E29" s="5">
+        <v>43</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2</v>
+      </c>
+      <c r="G29" s="5">
+        <v>3</v>
+      </c>
+      <c r="H29" s="7">
         <f t="shared" si="9"/>
-        <v/>
+        <v>42.333333333333336</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="e">
+        <v>48</v>
+      </c>
+      <c r="J29" s="7">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K29" s="7" t="e">
+        <v>88.194444444444457</v>
+      </c>
+      <c r="K29" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L29" s="6" t="e">
+        <v>26.458333333333336</v>
+      </c>
+      <c r="L29" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" s="6" t="e">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="M29" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="6" t="e">
+        <v>0.9375</v>
+      </c>
+      <c r="N29" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -7952,38 +7962,48 @@
       <c r="B30" s="4">
         <v>45794</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="7" t="str">
+      <c r="C30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="5">
+        <v>25</v>
+      </c>
+      <c r="E30" s="5">
+        <v>25</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
         <f t="shared" ref="H30:H31" si="11">IF(AND(ISNUMBER(E30), ISNUMBER(F30), ISNUMBER(G30)), E30 - (F30* 1/3), "")</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" ref="I30:I31" si="12">D30*1</f>
+        <v>25</v>
+      </c>
+      <c r="J30" s="7">
+        <f t="shared" ref="J30:J31" si="13">(H30/I30)*100</f>
+        <v>100</v>
+      </c>
+      <c r="K30" s="7">
+        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
+        <v>30</v>
+      </c>
+      <c r="L30" s="6">
+        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
+        <v>1</v>
+      </c>
+      <c r="M30" s="6">
+        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
+        <v>1</v>
+      </c>
+      <c r="N30" s="6">
+        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
         <v>0</v>
-      </c>
-      <c r="J30" s="7" t="e">
-        <f t="shared" ref="J30:J31" si="13">(H30/I30)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K30" s="7" t="e">
-        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L30" s="6" t="e">
-        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M30" s="6" t="e">
-        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N30" s="6" t="e">
-        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -7991,38 +8011,48 @@
       <c r="B31" s="4">
         <v>45794</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="7" t="str">
+      <c r="C31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="5">
+        <v>50</v>
+      </c>
+      <c r="E31" s="5">
+        <v>48</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7">
         <f t="shared" si="11"/>
-        <v/>
+        <v>47.666666666666664</v>
       </c>
       <c r="I31" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="e">
+        <v>50</v>
+      </c>
+      <c r="J31" s="7">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K31" s="7" t="e">
+        <v>95.333333333333329</v>
+      </c>
+      <c r="K31" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L31" s="6" t="e">
+        <v>28.599999999999998</v>
+      </c>
+      <c r="L31" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" s="6" t="e">
+        <v>0.96</v>
+      </c>
+      <c r="M31" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N31" s="6" t="e">
+        <v>0.98</v>
+      </c>
+      <c r="N31" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -9693,6 +9723,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A41:A43"/>
@@ -9705,18 +9747,6 @@
     <mergeCell ref="A62:A64"/>
     <mergeCell ref="A65:A67"/>
     <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/02062025-delhi-aiims-bsc-nursing-prepatory-data-set.xlsx
+++ b/02062025-delhi-aiims-bsc-nursing-prepatory-data-set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Github\student_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C33E736-9579-488B-80F5-D64AC82EC923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEAD891-0C60-427A-83E7-A0B1578B2D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5A00A1E-0852-4B43-B760-DC16954E0468}"/>
+    <workbookView xWindow="8472" yWindow="0" windowWidth="14568" windowHeight="12240" xr2:uid="{A5A00A1E-0852-4B43-B760-DC16954E0468}"/>
   </bookViews>
   <sheets>
     <sheet name="Marksheet" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
   <si>
     <t>date</t>
   </si>
@@ -6477,8 +6477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345E9B88-8FA7-480F-BC36-23D2BE33213E}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="113" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="113" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8062,38 +8062,48 @@
       <c r="B32" s="4">
         <v>45795</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="7" t="str">
+      <c r="C32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="5">
+        <v>30</v>
+      </c>
+      <c r="E32" s="5">
+        <v>28</v>
+      </c>
+      <c r="F32" s="5">
+        <v>2</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
         <f>IF(AND(ISNUMBER(E32), ISNUMBER(F32), ISNUMBER(G32)), E32 - (F32* 1/3), "")</f>
-        <v/>
+        <v>27.333333333333332</v>
       </c>
       <c r="I32" s="5">
         <f>D32*1</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="e">
+        <v>30</v>
+      </c>
+      <c r="J32" s="7">
         <f>(H32/I32)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K32" s="7" t="e">
+        <v>91.111111111111114</v>
+      </c>
+      <c r="K32" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L32" s="6" t="e">
+        <v>27.333333333333332</v>
+      </c>
+      <c r="L32" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32" s="6" t="e">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="M32" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N32" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="N32" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -8101,38 +8111,48 @@
       <c r="B33" s="4">
         <v>45795</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="7" t="str">
+      <c r="C33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="5">
+        <v>35</v>
+      </c>
+      <c r="E33" s="5">
+        <v>29</v>
+      </c>
+      <c r="F33" s="5">
+        <v>3</v>
+      </c>
+      <c r="G33" s="5">
+        <v>3</v>
+      </c>
+      <c r="H33" s="7">
         <f t="shared" ref="H33:H34" si="14">IF(AND(ISNUMBER(E33), ISNUMBER(F33), ISNUMBER(G33)), E33 - (F33* 1/3), "")</f>
-        <v/>
+        <v>28</v>
       </c>
       <c r="I33" s="5">
         <f t="shared" ref="I33:I34" si="15">D33*1</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="7" t="e">
+        <v>35</v>
+      </c>
+      <c r="J33" s="7">
         <f t="shared" ref="J33:J34" si="16">(H33/I33)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K33" s="7" t="e">
+        <v>80</v>
+      </c>
+      <c r="K33" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L33" s="6" t="e">
+        <v>24</v>
+      </c>
+      <c r="L33" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M33" s="6" t="e">
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="M33" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N33" s="6" t="e">
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="N33" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>8.5714285714285715E-2</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -8140,38 +8160,48 @@
       <c r="B34" s="4">
         <v>45795</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="7" t="str">
+      <c r="C34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="5">
+        <v>50</v>
+      </c>
+      <c r="E34" s="5">
+        <v>49</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
         <f t="shared" si="14"/>
-        <v/>
+        <v>48.666666666666664</v>
       </c>
       <c r="I34" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="7" t="e">
+        <v>50</v>
+      </c>
+      <c r="J34" s="7">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K34" s="7" t="e">
+        <v>97.333333333333329</v>
+      </c>
+      <c r="K34" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L34" s="6" t="e">
+        <v>29.2</v>
+      </c>
+      <c r="L34" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M34" s="6" t="e">
+        <v>0.98</v>
+      </c>
+      <c r="M34" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N34" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="N34" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -8181,38 +8211,48 @@
       <c r="B35" s="4">
         <v>45796</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="7" t="str">
+      <c r="C35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="5">
+        <v>25</v>
+      </c>
+      <c r="E35" s="5">
+        <v>22</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>3</v>
+      </c>
+      <c r="H35" s="7">
         <f>IF(AND(ISNUMBER(E35), ISNUMBER(F35), ISNUMBER(G35)), E35 - (F35* 1/3), "")</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="I35" s="5">
         <f>D35*1</f>
+        <v>25</v>
+      </c>
+      <c r="J35" s="7">
+        <f>(H35/I35)*100</f>
+        <v>88</v>
+      </c>
+      <c r="K35" s="7">
+        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
+        <v>26.4</v>
+      </c>
+      <c r="L35" s="6">
+        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
+        <v>0.88</v>
+      </c>
+      <c r="M35" s="6">
+        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
+        <v>0.88</v>
+      </c>
+      <c r="N35" s="6">
+        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
         <v>0</v>
-      </c>
-      <c r="J35" s="7" t="e">
-        <f>(H35/I35)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K35" s="7" t="e">
-        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L35" s="6" t="e">
-        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35" s="6" t="e">
-        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N35" s="6" t="e">
-        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -8220,38 +8260,48 @@
       <c r="B36" s="4">
         <v>45796</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="7" t="str">
+      <c r="C36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="5">
+        <v>25</v>
+      </c>
+      <c r="E36" s="5">
+        <v>25</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
         <f t="shared" ref="H36:H37" si="17">IF(AND(ISNUMBER(E36), ISNUMBER(F36), ISNUMBER(G36)), E36 - (F36* 1/3), "")</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="I36" s="5">
         <f t="shared" ref="I36:I37" si="18">D36*1</f>
+        <v>25</v>
+      </c>
+      <c r="J36" s="7">
+        <f t="shared" ref="J36:J37" si="19">(H36/I36)*100</f>
+        <v>100</v>
+      </c>
+      <c r="K36" s="7">
+        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
+        <v>30</v>
+      </c>
+      <c r="L36" s="6">
+        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
+        <v>1</v>
+      </c>
+      <c r="M36" s="6">
+        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
+        <v>1</v>
+      </c>
+      <c r="N36" s="6">
+        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
         <v>0</v>
-      </c>
-      <c r="J36" s="7" t="e">
-        <f t="shared" ref="J36:J37" si="19">(H36/I36)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K36" s="7" t="e">
-        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L36" s="6" t="e">
-        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M36" s="6" t="e">
-        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N36" s="6" t="e">
-        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -8259,38 +8309,48 @@
       <c r="B37" s="4">
         <v>45796</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="7" t="str">
+      <c r="C37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="5">
+        <v>50</v>
+      </c>
+      <c r="E37" s="5">
+        <v>46</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5">
+        <v>3</v>
+      </c>
+      <c r="H37" s="7">
         <f t="shared" si="17"/>
-        <v/>
+        <v>45.666666666666664</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="e">
+        <v>50</v>
+      </c>
+      <c r="J37" s="7">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K37" s="7" t="e">
+        <v>91.333333333333329</v>
+      </c>
+      <c r="K37" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L37" s="6" t="e">
+        <v>27.4</v>
+      </c>
+      <c r="L37" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M37" s="6" t="e">
+        <v>0.92</v>
+      </c>
+      <c r="M37" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N37" s="6" t="e">
+        <v>0.94</v>
+      </c>
+      <c r="N37" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -8300,7 +8360,9 @@
       <c r="B38" s="4">
         <v>45797</v>
       </c>
-      <c r="C38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -8339,7 +8401,9 @@
       <c r="B39" s="4">
         <v>45797</v>
       </c>
-      <c r="C39" s="5"/>
+      <c r="C39" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -8378,38 +8442,48 @@
       <c r="B40" s="4">
         <v>45797</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="7" t="str">
+      <c r="C40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="5">
+        <v>50</v>
+      </c>
+      <c r="E40" s="5">
+        <v>44</v>
+      </c>
+      <c r="F40" s="5">
+        <v>3</v>
+      </c>
+      <c r="G40" s="5">
+        <v>3</v>
+      </c>
+      <c r="H40" s="7">
         <f>IF(AND(ISNUMBER(E40), ISNUMBER(F40), ISNUMBER(G40)), E40 - (F40* 1/3), "")</f>
-        <v/>
+        <v>43</v>
       </c>
       <c r="I40" s="5">
         <f>D40*1</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="7" t="e">
+        <v>50</v>
+      </c>
+      <c r="J40" s="7">
         <f>(H40/I40)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K40" s="7" t="e">
+        <v>86</v>
+      </c>
+      <c r="K40" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L40" s="6" t="e">
+        <v>25.8</v>
+      </c>
+      <c r="L40" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M40" s="6" t="e">
+        <v>0.88</v>
+      </c>
+      <c r="M40" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N40" s="6" t="e">
+        <v>0.94</v>
+      </c>
+      <c r="N40" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -9723,6 +9797,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A70"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -9735,18 +9821,6 @@
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/02062025-delhi-aiims-bsc-nursing-prepatory-data-set.xlsx
+++ b/02062025-delhi-aiims-bsc-nursing-prepatory-data-set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Github\student_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEAD891-0C60-427A-83E7-A0B1578B2D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3CE388-C0CE-4C8F-867F-1B83B2894769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8472" yWindow="0" windowWidth="14568" windowHeight="12240" xr2:uid="{A5A00A1E-0852-4B43-B760-DC16954E0468}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5A00A1E-0852-4B43-B760-DC16954E0468}"/>
   </bookViews>
   <sheets>
     <sheet name="Marksheet" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="24">
   <si>
     <t>date</t>
   </si>
@@ -6477,8 +6477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345E9B88-8FA7-480F-BC36-23D2BE33213E}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="113" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:D40"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="113" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8363,37 +8363,45 @@
       <c r="C38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="7" t="str">
+      <c r="D38" s="5">
+        <v>45</v>
+      </c>
+      <c r="E38" s="5">
+        <v>38</v>
+      </c>
+      <c r="F38" s="5">
+        <v>4</v>
+      </c>
+      <c r="G38" s="5">
+        <v>3</v>
+      </c>
+      <c r="H38" s="7">
         <f>IF(AND(ISNUMBER(E38), ISNUMBER(F38), ISNUMBER(G38)), E38 - (F38* 1/3), "")</f>
-        <v/>
+        <v>36.666666666666664</v>
       </c>
       <c r="I38" s="5">
         <f>D38*1</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="7" t="e">
+        <v>45</v>
+      </c>
+      <c r="J38" s="7">
         <f>(H38/I38)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K38" s="7" t="e">
+        <v>81.481481481481481</v>
+      </c>
+      <c r="K38" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L38" s="6" t="e">
+        <v>24.444444444444443</v>
+      </c>
+      <c r="L38" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M38" s="6" t="e">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="M38" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N38" s="6" t="e">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="N38" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>8.8888888888888892E-2</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -8404,37 +8412,45 @@
       <c r="C39" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="7" t="str">
+      <c r="D39" s="5">
+        <v>65</v>
+      </c>
+      <c r="E39" s="5">
+        <v>61</v>
+      </c>
+      <c r="F39" s="5">
+        <v>3</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7">
         <f>IF(AND(ISNUMBER(E39), ISNUMBER(F39), ISNUMBER(G39)), E39 - (F39* 1/3), "")</f>
-        <v/>
+        <v>60</v>
       </c>
       <c r="I39" s="5">
         <f>D39*1</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="7" t="e">
+        <v>65</v>
+      </c>
+      <c r="J39" s="7">
         <f>(H39/I39)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K39" s="7" t="e">
+        <v>92.307692307692307</v>
+      </c>
+      <c r="K39" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L39" s="6" t="e">
+        <v>27.692307692307693</v>
+      </c>
+      <c r="L39" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M39" s="6" t="e">
+        <v>0.93846153846153846</v>
+      </c>
+      <c r="M39" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N39" s="6" t="e">
+        <v>0.98461538461538467</v>
+      </c>
+      <c r="N39" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>4.6153846153846156E-2</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -8493,38 +8509,48 @@
       <c r="B41" s="4">
         <v>45798</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="7" t="str">
+      <c r="C41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="5">
+        <v>63</v>
+      </c>
+      <c r="E41" s="5">
+        <v>54</v>
+      </c>
+      <c r="F41" s="5">
+        <v>4</v>
+      </c>
+      <c r="G41" s="5">
+        <v>5</v>
+      </c>
+      <c r="H41" s="7">
         <f>IF(AND(ISNUMBER(E41), ISNUMBER(F41), ISNUMBER(G41)), E41 - (F41* 1/3), "")</f>
-        <v/>
+        <v>52.666666666666664</v>
       </c>
       <c r="I41" s="5">
         <f>D41*1</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="7" t="e">
+        <v>63</v>
+      </c>
+      <c r="J41" s="7">
         <f>(H41/I41)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K41" s="7" t="e">
+        <v>83.597883597883595</v>
+      </c>
+      <c r="K41" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L41" s="6" t="e">
+        <v>25.079365079365079</v>
+      </c>
+      <c r="L41" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" s="6" t="e">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="M41" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N41" s="6" t="e">
+        <v>0.92063492063492058</v>
+      </c>
+      <c r="N41" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>6.3492063492063489E-2</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -8532,38 +8558,48 @@
       <c r="B42" s="4">
         <v>45798</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="7" t="str">
+      <c r="C42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="5">
+        <v>18</v>
+      </c>
+      <c r="E42" s="5">
+        <v>18</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
         <f t="shared" ref="H42:H43" si="20">IF(AND(ISNUMBER(E42), ISNUMBER(F42), ISNUMBER(G42)), E42 - (F42* 1/3), "")</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="I42" s="5">
         <f t="shared" ref="I42:I43" si="21">D42*1</f>
+        <v>18</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" ref="J42:J43" si="22">(H42/I42)*100</f>
+        <v>100</v>
+      </c>
+      <c r="K42" s="7">
+        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
+        <v>30</v>
+      </c>
+      <c r="L42" s="6">
+        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
+        <v>1</v>
+      </c>
+      <c r="M42" s="6">
+        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
+        <v>1</v>
+      </c>
+      <c r="N42" s="6">
+        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
         <v>0</v>
-      </c>
-      <c r="J42" s="7" t="e">
-        <f t="shared" ref="J42:J43" si="22">(H42/I42)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K42" s="7" t="e">
-        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L42" s="6" t="e">
-        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" s="6" t="e">
-        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N42" s="6" t="e">
-        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -8571,38 +8607,48 @@
       <c r="B43" s="4">
         <v>45798</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="7" t="str">
+      <c r="C43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="5">
+        <v>50</v>
+      </c>
+      <c r="E43" s="5">
+        <v>43</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5">
+        <v>6</v>
+      </c>
+      <c r="H43" s="7">
         <f t="shared" si="20"/>
-        <v/>
+        <v>42.666666666666664</v>
       </c>
       <c r="I43" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="7" t="e">
+        <v>50</v>
+      </c>
+      <c r="J43" s="7">
         <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K43" s="7" t="e">
+        <v>85.333333333333329</v>
+      </c>
+      <c r="K43" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L43" s="6" t="e">
+        <v>25.599999999999998</v>
+      </c>
+      <c r="L43" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M43" s="6" t="e">
+        <v>0.86</v>
+      </c>
+      <c r="M43" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N43" s="6" t="e">
+        <v>0.88</v>
+      </c>
+      <c r="N43" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -8612,7 +8658,9 @@
       <c r="B44" s="4">
         <v>45799</v>
       </c>
-      <c r="C44" s="5"/>
+      <c r="C44" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -8651,38 +8699,48 @@
       <c r="B45" s="4">
         <v>45799</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="7" t="str">
+      <c r="C45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="5">
+        <v>50</v>
+      </c>
+      <c r="E45" s="5">
+        <v>47</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
+        <v>3</v>
+      </c>
+      <c r="H45" s="7">
         <f t="shared" ref="H45:H46" si="23">IF(AND(ISNUMBER(E45), ISNUMBER(F45), ISNUMBER(G45)), E45 - (F45* 1/3), "")</f>
-        <v/>
+        <v>47</v>
       </c>
       <c r="I45" s="5">
         <f t="shared" ref="I45:I46" si="24">D45*1</f>
+        <v>50</v>
+      </c>
+      <c r="J45" s="7">
+        <f t="shared" ref="J45:J46" si="25">(H45/I45)*100</f>
+        <v>94</v>
+      </c>
+      <c r="K45" s="7">
+        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
+        <v>28.2</v>
+      </c>
+      <c r="L45" s="6">
+        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
+        <v>0.94</v>
+      </c>
+      <c r="M45" s="6">
+        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
+        <v>0.94</v>
+      </c>
+      <c r="N45" s="6">
+        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
         <v>0</v>
-      </c>
-      <c r="J45" s="7" t="e">
-        <f t="shared" ref="J45:J46" si="25">(H45/I45)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K45" s="7" t="e">
-        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L45" s="6" t="e">
-        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M45" s="6" t="e">
-        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N45" s="6" t="e">
-        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -8690,7 +8748,9 @@
       <c r="B46" s="4">
         <v>45799</v>
       </c>
-      <c r="C46" s="5"/>
+      <c r="C46" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -8731,7 +8791,9 @@
       <c r="B47" s="4">
         <v>45800</v>
       </c>
-      <c r="C47" s="5"/>
+      <c r="C47" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -8770,7 +8832,9 @@
       <c r="B48" s="4">
         <v>45800</v>
       </c>
-      <c r="C48" s="5"/>
+      <c r="C48" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -8809,7 +8873,9 @@
       <c r="B49" s="4">
         <v>45800</v>
       </c>
-      <c r="C49" s="5"/>
+      <c r="C49" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -8850,7 +8916,9 @@
       <c r="B50" s="4">
         <v>45801</v>
       </c>
-      <c r="C50" s="5"/>
+      <c r="C50" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -8889,7 +8957,9 @@
       <c r="B51" s="4">
         <v>45801</v>
       </c>
-      <c r="C51" s="5"/>
+      <c r="C51" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -8928,7 +8998,9 @@
       <c r="B52" s="4">
         <v>45801</v>
       </c>
-      <c r="C52" s="5"/>
+      <c r="C52" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -8969,7 +9041,9 @@
       <c r="B53" s="4">
         <v>45802</v>
       </c>
-      <c r="C53" s="5"/>
+      <c r="C53" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -9008,7 +9082,9 @@
       <c r="B54" s="4">
         <v>45802</v>
       </c>
-      <c r="C54" s="5"/>
+      <c r="C54" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -9047,7 +9123,9 @@
       <c r="B55" s="4">
         <v>45802</v>
       </c>
-      <c r="C55" s="5"/>
+      <c r="C55" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -9088,7 +9166,9 @@
       <c r="B56" s="4">
         <v>45803</v>
       </c>
-      <c r="C56" s="5"/>
+      <c r="C56" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -9127,7 +9207,9 @@
       <c r="B57" s="4">
         <v>45803</v>
       </c>
-      <c r="C57" s="5"/>
+      <c r="C57" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -9166,7 +9248,9 @@
       <c r="B58" s="4">
         <v>45803</v>
       </c>
-      <c r="C58" s="5"/>
+      <c r="C58" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -9207,7 +9291,9 @@
       <c r="B59" s="4">
         <v>45804</v>
       </c>
-      <c r="C59" s="5"/>
+      <c r="C59" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -9246,7 +9332,9 @@
       <c r="B60" s="4">
         <v>45804</v>
       </c>
-      <c r="C60" s="5"/>
+      <c r="C60" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -9285,7 +9373,9 @@
       <c r="B61" s="4">
         <v>45804</v>
       </c>
-      <c r="C61" s="5"/>
+      <c r="C61" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -9326,7 +9416,9 @@
       <c r="B62" s="4">
         <v>45805</v>
       </c>
-      <c r="C62" s="5"/>
+      <c r="C62" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -9365,7 +9457,9 @@
       <c r="B63" s="4">
         <v>45805</v>
       </c>
-      <c r="C63" s="5"/>
+      <c r="C63" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -9404,7 +9498,9 @@
       <c r="B64" s="4">
         <v>45805</v>
       </c>
-      <c r="C64" s="5"/>
+      <c r="C64" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -9445,7 +9541,9 @@
       <c r="B65" s="4">
         <v>45806</v>
       </c>
-      <c r="C65" s="5"/>
+      <c r="C65" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -9484,7 +9582,9 @@
       <c r="B66" s="4">
         <v>45806</v>
       </c>
-      <c r="C66" s="5"/>
+      <c r="C66" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -9523,7 +9623,9 @@
       <c r="B67" s="4">
         <v>45806</v>
       </c>
-      <c r="C67" s="5"/>
+      <c r="C67" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -9564,7 +9666,9 @@
       <c r="B68" s="4">
         <v>45807</v>
       </c>
-      <c r="C68" s="5"/>
+      <c r="C68" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -9603,7 +9707,9 @@
       <c r="B69" s="4">
         <v>45807</v>
       </c>
-      <c r="C69" s="5"/>
+      <c r="C69" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -9642,7 +9748,9 @@
       <c r="B70" s="4">
         <v>45807</v>
       </c>
-      <c r="C70" s="5"/>
+      <c r="C70" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -9683,7 +9791,9 @@
       <c r="B71" s="4">
         <v>45808</v>
       </c>
-      <c r="C71" s="5"/>
+      <c r="C71" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -9722,7 +9832,9 @@
       <c r="B72" s="4">
         <v>45808</v>
       </c>
-      <c r="C72" s="5"/>
+      <c r="C72" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -9761,7 +9873,9 @@
       <c r="B73" s="4">
         <v>45808</v>
       </c>
-      <c r="C73" s="5"/>
+      <c r="C73" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -9797,6 +9911,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A41:A43"/>
@@ -9809,18 +9935,6 @@
     <mergeCell ref="A62:A64"/>
     <mergeCell ref="A65:A67"/>
     <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/02062025-delhi-aiims-bsc-nursing-prepatory-data-set.xlsx
+++ b/02062025-delhi-aiims-bsc-nursing-prepatory-data-set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Github\student_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3CE388-C0CE-4C8F-867F-1B83B2894769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B9FEA5-A719-4EAD-9D86-1447B47C75DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5A00A1E-0852-4B43-B760-DC16954E0468}"/>
   </bookViews>
@@ -6478,7 +6478,7 @@
   <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScale="113" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8661,37 +8661,45 @@
       <c r="C44" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="7" t="str">
+      <c r="D44" s="5">
+        <v>74</v>
+      </c>
+      <c r="E44" s="5">
+        <v>64</v>
+      </c>
+      <c r="F44" s="5">
+        <v>5</v>
+      </c>
+      <c r="G44" s="5">
+        <v>5</v>
+      </c>
+      <c r="H44" s="7">
         <f>IF(AND(ISNUMBER(E44), ISNUMBER(F44), ISNUMBER(G44)), E44 - (F44* 1/3), "")</f>
-        <v/>
+        <v>62.333333333333336</v>
       </c>
       <c r="I44" s="5">
         <f>D44*1</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="7" t="e">
+        <v>74</v>
+      </c>
+      <c r="J44" s="7">
         <f>(H44/I44)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K44" s="7" t="e">
+        <v>84.234234234234236</v>
+      </c>
+      <c r="K44" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L44" s="6" t="e">
+        <v>25.270270270270274</v>
+      </c>
+      <c r="L44" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M44" s="6" t="e">
+        <v>0.86486486486486491</v>
+      </c>
+      <c r="M44" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N44" s="6" t="e">
+        <v>0.93243243243243246</v>
+      </c>
+      <c r="N44" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>6.7567567567567571E-2</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -8835,37 +8843,45 @@
       <c r="C48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="7" t="str">
+      <c r="D48" s="5">
+        <v>61</v>
+      </c>
+      <c r="E48" s="5">
+        <v>51</v>
+      </c>
+      <c r="F48" s="5">
+        <v>6</v>
+      </c>
+      <c r="G48" s="5">
+        <v>4</v>
+      </c>
+      <c r="H48" s="7">
         <f t="shared" ref="H48:H49" si="26">IF(AND(ISNUMBER(E48), ISNUMBER(F48), ISNUMBER(G48)), E48 - (F48* 1/3), "")</f>
-        <v/>
+        <v>49</v>
       </c>
       <c r="I48" s="5">
         <f t="shared" ref="I48:I49" si="27">D48*1</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="7" t="e">
+        <v>61</v>
+      </c>
+      <c r="J48" s="7">
         <f t="shared" ref="J48:J49" si="28">(H48/I48)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K48" s="7" t="e">
+        <v>80.327868852459019</v>
+      </c>
+      <c r="K48" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L48" s="6" t="e">
+        <v>24.098360655737704</v>
+      </c>
+      <c r="L48" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M48" s="6" t="e">
+        <v>0.83606557377049184</v>
+      </c>
+      <c r="M48" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N48" s="6" t="e">
+        <v>0.93442622950819676</v>
+      </c>
+      <c r="N48" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>9.8360655737704916E-2</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -9911,6 +9927,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A70"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -9923,18 +9951,6 @@
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/02062025-delhi-aiims-bsc-nursing-prepatory-data-set.xlsx
+++ b/02062025-delhi-aiims-bsc-nursing-prepatory-data-set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Github\student_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B9FEA5-A719-4EAD-9D86-1447B47C75DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF805CC-DEEA-4418-AE69-1A18FBA291FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5A00A1E-0852-4B43-B760-DC16954E0468}"/>
   </bookViews>
@@ -6477,8 +6477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345E9B88-8FA7-480F-BC36-23D2BE33213E}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="113" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="113" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8711,44 +8711,44 @@
         <v>9</v>
       </c>
       <c r="D45" s="5">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E45" s="5">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F45" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G45" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H45" s="7">
-        <f t="shared" ref="H45:H46" si="23">IF(AND(ISNUMBER(E45), ISNUMBER(F45), ISNUMBER(G45)), E45 - (F45* 1/3), "")</f>
-        <v>47</v>
+        <f>IF(AND(ISNUMBER(E45), ISNUMBER(F45), ISNUMBER(G45)), E45 - (F45* 1/3), "")</f>
+        <v>49</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" ref="I45:I46" si="24">D45*1</f>
-        <v>50</v>
+        <f>D45*1</f>
+        <v>61</v>
       </c>
       <c r="J45" s="7">
-        <f t="shared" ref="J45:J46" si="25">(H45/I45)*100</f>
-        <v>94</v>
+        <f t="shared" ref="J45:J46" si="23">(H45/I45)*100</f>
+        <v>80.327868852459019</v>
       </c>
       <c r="K45" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>28.2</v>
+        <v>24.098360655737704</v>
       </c>
       <c r="L45" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>0.94</v>
+        <v>0.83606557377049184</v>
       </c>
       <c r="M45" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>0.94</v>
+        <v>0.93442622950819676</v>
       </c>
       <c r="N45" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>0</v>
+        <v>9.8360655737704916E-2</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -8759,37 +8759,45 @@
       <c r="C46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="7" t="str">
+      <c r="D46" s="5">
+        <v>50</v>
+      </c>
+      <c r="E46" s="5">
+        <v>47</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5">
+        <v>3</v>
+      </c>
+      <c r="H46" s="7">
+        <f>IF(AND(ISNUMBER(E46), ISNUMBER(F46), ISNUMBER(G46)), E46 - (F46* 1/3), "")</f>
+        <v>47</v>
+      </c>
+      <c r="I46" s="5">
+        <f>D46*1</f>
+        <v>50</v>
+      </c>
+      <c r="J46" s="7">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="I46" s="5">
-        <f t="shared" si="24"/>
+        <v>94</v>
+      </c>
+      <c r="K46" s="7">
+        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
+        <v>28.2</v>
+      </c>
+      <c r="L46" s="6">
+        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
+        <v>0.94</v>
+      </c>
+      <c r="M46" s="6">
+        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
+        <v>0.94</v>
+      </c>
+      <c r="N46" s="6">
+        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
         <v>0</v>
-      </c>
-      <c r="J46" s="7" t="e">
-        <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K46" s="7" t="e">
-        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L46" s="6" t="e">
-        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M46" s="6" t="e">
-        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N46" s="6" t="e">
-        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -8843,45 +8851,37 @@
       <c r="C48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="5">
-        <v>61</v>
-      </c>
-      <c r="E48" s="5">
-        <v>51</v>
-      </c>
-      <c r="F48" s="5">
-        <v>6</v>
-      </c>
-      <c r="G48" s="5">
-        <v>4</v>
-      </c>
-      <c r="H48" s="7">
-        <f t="shared" ref="H48:H49" si="26">IF(AND(ISNUMBER(E48), ISNUMBER(F48), ISNUMBER(G48)), E48 - (F48* 1/3), "")</f>
-        <v>49</v>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="7" t="str">
+        <f>IF(AND(ISNUMBER(E48), ISNUMBER(F48), ISNUMBER(G48)), E48 - (F48* 1/3), "")</f>
+        <v/>
       </c>
       <c r="I48" s="5">
-        <f t="shared" ref="I48:I49" si="27">D48*1</f>
-        <v>61</v>
-      </c>
-      <c r="J48" s="7">
-        <f t="shared" ref="J48:J49" si="28">(H48/I48)*100</f>
-        <v>80.327868852459019</v>
-      </c>
-      <c r="K48" s="7">
+        <f>D48*1</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="7" t="e">
+        <f t="shared" ref="J48:J49" si="24">(H48/I48)*100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K48" s="7" t="e">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>24.098360655737704</v>
-      </c>
-      <c r="L48" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L48" s="6" t="e">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>0.83606557377049184</v>
-      </c>
-      <c r="M48" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M48" s="6" t="e">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>0.93442622950819676</v>
-      </c>
-      <c r="N48" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N48" s="6" t="e">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>9.8360655737704916E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -8897,15 +8897,15 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="7" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="H48:H49" si="25">IF(AND(ISNUMBER(E49), ISNUMBER(F49), ISNUMBER(G49)), E49 - (F49* 1/3), "")</f>
         <v/>
       </c>
       <c r="I49" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="I48:I49" si="26">D49*1</f>
         <v>0</v>
       </c>
       <c r="J49" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="K49" s="7" t="e">
@@ -8981,15 +8981,15 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="7" t="str">
-        <f t="shared" ref="H51:H52" si="29">IF(AND(ISNUMBER(E51), ISNUMBER(F51), ISNUMBER(G51)), E51 - (F51* 1/3), "")</f>
+        <f t="shared" ref="H51:H52" si="27">IF(AND(ISNUMBER(E51), ISNUMBER(F51), ISNUMBER(G51)), E51 - (F51* 1/3), "")</f>
         <v/>
       </c>
       <c r="I51" s="5">
-        <f t="shared" ref="I51:I52" si="30">D51*1</f>
+        <f t="shared" ref="I51:I52" si="28">D51*1</f>
         <v>0</v>
       </c>
       <c r="J51" s="7" t="e">
-        <f t="shared" ref="J51:J52" si="31">(H51/I51)*100</f>
+        <f t="shared" ref="J51:J52" si="29">(H51/I51)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="K51" s="7" t="e">
@@ -9022,15 +9022,15 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="I52" s="5">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="7" t="e">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="I52" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="7" t="e">
-        <f t="shared" si="31"/>
         <v>#VALUE!</v>
       </c>
       <c r="K52" s="7" t="e">
@@ -9106,15 +9106,15 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="7" t="str">
-        <f t="shared" ref="H54:H55" si="32">IF(AND(ISNUMBER(E54), ISNUMBER(F54), ISNUMBER(G54)), E54 - (F54* 1/3), "")</f>
+        <f t="shared" ref="H54:H55" si="30">IF(AND(ISNUMBER(E54), ISNUMBER(F54), ISNUMBER(G54)), E54 - (F54* 1/3), "")</f>
         <v/>
       </c>
       <c r="I54" s="5">
-        <f t="shared" ref="I54:I55" si="33">D54*1</f>
+        <f t="shared" ref="I54:I55" si="31">D54*1</f>
         <v>0</v>
       </c>
       <c r="J54" s="7" t="e">
-        <f t="shared" ref="J54:J55" si="34">(H54/I54)*100</f>
+        <f t="shared" ref="J54:J55" si="32">(H54/I54)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="K54" s="7" t="e">
@@ -9147,15 +9147,15 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="I55" s="5">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="7" t="e">
         <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I55" s="5">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="7" t="e">
-        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="K55" s="7" t="e">
@@ -9231,15 +9231,15 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="7" t="str">
-        <f t="shared" ref="H57:H58" si="35">IF(AND(ISNUMBER(E57), ISNUMBER(F57), ISNUMBER(G57)), E57 - (F57* 1/3), "")</f>
+        <f t="shared" ref="H57:H58" si="33">IF(AND(ISNUMBER(E57), ISNUMBER(F57), ISNUMBER(G57)), E57 - (F57* 1/3), "")</f>
         <v/>
       </c>
       <c r="I57" s="5">
-        <f t="shared" ref="I57:I58" si="36">D57*1</f>
+        <f t="shared" ref="I57:I58" si="34">D57*1</f>
         <v>0</v>
       </c>
       <c r="J57" s="7" t="e">
-        <f t="shared" ref="J57:J58" si="37">(H57/I57)*100</f>
+        <f t="shared" ref="J57:J58" si="35">(H57/I57)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="K57" s="7" t="e">
@@ -9272,15 +9272,15 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I58" s="5">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="7" t="e">
         <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="I58" s="5">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="7" t="e">
-        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="K58" s="7" t="e">
@@ -9356,15 +9356,15 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="7" t="str">
-        <f t="shared" ref="H60:H61" si="38">IF(AND(ISNUMBER(E60), ISNUMBER(F60), ISNUMBER(G60)), E60 - (F60* 1/3), "")</f>
+        <f t="shared" ref="H60:H61" si="36">IF(AND(ISNUMBER(E60), ISNUMBER(F60), ISNUMBER(G60)), E60 - (F60* 1/3), "")</f>
         <v/>
       </c>
       <c r="I60" s="5">
-        <f t="shared" ref="I60:I61" si="39">D60*1</f>
+        <f t="shared" ref="I60:I61" si="37">D60*1</f>
         <v>0</v>
       </c>
       <c r="J60" s="7" t="e">
-        <f t="shared" ref="J60:J61" si="40">(H60/I60)*100</f>
+        <f t="shared" ref="J60:J61" si="38">(H60/I60)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="K60" s="7" t="e">
@@ -9397,15 +9397,15 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="7" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I61" s="5">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="7" t="e">
         <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="I61" s="5">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="7" t="e">
-        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="K61" s="7" t="e">
@@ -9481,15 +9481,15 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="7" t="str">
-        <f t="shared" ref="H63:H64" si="41">IF(AND(ISNUMBER(E63), ISNUMBER(F63), ISNUMBER(G63)), E63 - (F63* 1/3), "")</f>
+        <f t="shared" ref="H63:H64" si="39">IF(AND(ISNUMBER(E63), ISNUMBER(F63), ISNUMBER(G63)), E63 - (F63* 1/3), "")</f>
         <v/>
       </c>
       <c r="I63" s="5">
-        <f t="shared" ref="I63:I64" si="42">D63*1</f>
+        <f t="shared" ref="I63:I64" si="40">D63*1</f>
         <v>0</v>
       </c>
       <c r="J63" s="7" t="e">
-        <f t="shared" ref="J63:J64" si="43">(H63/I63)*100</f>
+        <f t="shared" ref="J63:J64" si="41">(H63/I63)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="K63" s="7" t="e">
@@ -9522,15 +9522,15 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="I64" s="5">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="7" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I64" s="5">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="7" t="e">
-        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="K64" s="7" t="e">
@@ -9606,15 +9606,15 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="7" t="str">
-        <f t="shared" ref="H66:H67" si="44">IF(AND(ISNUMBER(E66), ISNUMBER(F66), ISNUMBER(G66)), E66 - (F66* 1/3), "")</f>
+        <f t="shared" ref="H66:H67" si="42">IF(AND(ISNUMBER(E66), ISNUMBER(F66), ISNUMBER(G66)), E66 - (F66* 1/3), "")</f>
         <v/>
       </c>
       <c r="I66" s="5">
-        <f t="shared" ref="I66:I67" si="45">D66*1</f>
+        <f t="shared" ref="I66:I67" si="43">D66*1</f>
         <v>0</v>
       </c>
       <c r="J66" s="7" t="e">
-        <f t="shared" ref="J66:J67" si="46">(H66/I66)*100</f>
+        <f t="shared" ref="J66:J67" si="44">(H66/I66)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="K66" s="7" t="e">
@@ -9647,15 +9647,15 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="7" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I67" s="5">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="7" t="e">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I67" s="5">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="7" t="e">
-        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="K67" s="7" t="e">
@@ -9690,15 +9690,15 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="7" t="str">
-        <f t="shared" ref="H68:H73" si="47">IF(AND(ISNUMBER(E68), ISNUMBER(F68), ISNUMBER(G68)), E68 - (F68* 1/3), "")</f>
+        <f t="shared" ref="H68:H73" si="45">IF(AND(ISNUMBER(E68), ISNUMBER(F68), ISNUMBER(G68)), E68 - (F68* 1/3), "")</f>
         <v/>
       </c>
       <c r="I68" s="5">
-        <f t="shared" ref="I68:I73" si="48">D68*1</f>
+        <f t="shared" ref="I68:I73" si="46">D68*1</f>
         <v>0</v>
       </c>
       <c r="J68" s="7" t="e">
-        <f t="shared" ref="J68:J73" si="49">(H68/I68)*100</f>
+        <f t="shared" ref="J68:J73" si="47">(H68/I68)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="K68" s="7" t="e">
@@ -9731,15 +9731,15 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="7" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I69" s="5">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="7" t="e">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I69" s="5">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="7" t="e">
-        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="K69" s="7" t="e">
@@ -9772,15 +9772,15 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="7" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I70" s="5">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="7" t="e">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I70" s="5">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="7" t="e">
-        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="K70" s="7" t="e">
@@ -9815,15 +9815,15 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="7" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I71" s="5">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="7" t="e">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I71" s="5">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="7" t="e">
-        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="K71" s="7" t="e">
@@ -9856,15 +9856,15 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="7" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I72" s="5">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="7" t="e">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I72" s="5">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="7" t="e">
-        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="K72" s="7" t="e">
@@ -9897,15 +9897,15 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="7" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I73" s="5">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="7" t="e">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I73" s="5">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="7" t="e">
-        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="K73" s="7" t="e">
@@ -9927,6 +9927,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A41:A43"/>
@@ -9939,18 +9951,6 @@
     <mergeCell ref="A62:A64"/>
     <mergeCell ref="A65:A67"/>
     <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/02062025-delhi-aiims-bsc-nursing-prepatory-data-set.xlsx
+++ b/02062025-delhi-aiims-bsc-nursing-prepatory-data-set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Github\student_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF805CC-DEEA-4418-AE69-1A18FBA291FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40D1423-A129-4090-9FB5-174E92414CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5A00A1E-0852-4B43-B760-DC16954E0468}"/>
   </bookViews>
@@ -6477,8 +6477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345E9B88-8FA7-480F-BC36-23D2BE33213E}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="113" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="113" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8810,37 +8810,45 @@
       <c r="C47" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="7" t="str">
+      <c r="D47" s="5">
+        <v>19</v>
+      </c>
+      <c r="E47" s="5">
+        <v>17</v>
+      </c>
+      <c r="F47" s="5">
+        <v>2</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0</v>
+      </c>
+      <c r="H47" s="7">
         <f>IF(AND(ISNUMBER(E47), ISNUMBER(F47), ISNUMBER(G47)), E47 - (F47* 1/3), "")</f>
-        <v/>
+        <v>16.333333333333332</v>
       </c>
       <c r="I47" s="5">
         <f>D47*1</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="7" t="e">
+        <v>19</v>
+      </c>
+      <c r="J47" s="7">
         <f>(H47/I47)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K47" s="7" t="e">
+        <v>85.964912280701739</v>
+      </c>
+      <c r="K47" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L47" s="6" t="e">
+        <v>25.789473684210524</v>
+      </c>
+      <c r="L47" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M47" s="6" t="e">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="M47" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N47" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="N47" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>0.10526315789473684</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -8851,37 +8859,45 @@
       <c r="C48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="7" t="str">
+      <c r="D48" s="5">
+        <v>25</v>
+      </c>
+      <c r="E48" s="5">
+        <v>24</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7">
         <f>IF(AND(ISNUMBER(E48), ISNUMBER(F48), ISNUMBER(G48)), E48 - (F48* 1/3), "")</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="I48" s="5">
         <f>D48*1</f>
+        <v>25</v>
+      </c>
+      <c r="J48" s="7">
+        <f t="shared" ref="J48:J49" si="24">(H48/I48)*100</f>
+        <v>96</v>
+      </c>
+      <c r="K48" s="7">
+        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="L48" s="6">
+        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
+        <v>0.96</v>
+      </c>
+      <c r="M48" s="6">
+        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
+        <v>0.96</v>
+      </c>
+      <c r="N48" s="6">
+        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
         <v>0</v>
-      </c>
-      <c r="J48" s="7" t="e">
-        <f t="shared" ref="J48:J49" si="24">(H48/I48)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K48" s="7" t="e">
-        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L48" s="6" t="e">
-        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M48" s="6" t="e">
-        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N48" s="6" t="e">
-        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -8892,37 +8908,45 @@
       <c r="C49" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="7" t="str">
-        <f t="shared" ref="H48:H49" si="25">IF(AND(ISNUMBER(E49), ISNUMBER(F49), ISNUMBER(G49)), E49 - (F49* 1/3), "")</f>
-        <v/>
+      <c r="D49" s="5">
+        <v>50</v>
+      </c>
+      <c r="E49" s="5">
+        <v>46</v>
+      </c>
+      <c r="F49" s="5">
+        <v>2</v>
+      </c>
+      <c r="G49" s="5">
+        <v>2</v>
+      </c>
+      <c r="H49" s="7">
+        <f t="shared" ref="H49" si="25">IF(AND(ISNUMBER(E49), ISNUMBER(F49), ISNUMBER(G49)), E49 - (F49* 1/3), "")</f>
+        <v>45.333333333333336</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" ref="I48:I49" si="26">D49*1</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="7" t="e">
+        <f t="shared" ref="I49" si="26">D49*1</f>
+        <v>50</v>
+      </c>
+      <c r="J49" s="7">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K49" s="7" t="e">
+        <v>90.666666666666671</v>
+      </c>
+      <c r="K49" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L49" s="6" t="e">
+        <v>27.200000000000003</v>
+      </c>
+      <c r="L49" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M49" s="6" t="e">
+        <v>0.92</v>
+      </c>
+      <c r="M49" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N49" s="6" t="e">
+        <v>0.96</v>
+      </c>
+      <c r="N49" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -8935,37 +8959,45 @@
       <c r="C50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="7" t="str">
+      <c r="D50" s="5">
+        <v>29</v>
+      </c>
+      <c r="E50" s="5">
+        <v>26</v>
+      </c>
+      <c r="F50" s="5">
+        <v>1</v>
+      </c>
+      <c r="G50" s="5">
+        <v>2</v>
+      </c>
+      <c r="H50" s="7">
         <f>IF(AND(ISNUMBER(E50), ISNUMBER(F50), ISNUMBER(G50)), E50 - (F50* 1/3), "")</f>
-        <v/>
+        <v>25.666666666666668</v>
       </c>
       <c r="I50" s="5">
         <f>D50*1</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="7" t="e">
+        <v>29</v>
+      </c>
+      <c r="J50" s="7">
         <f>(H50/I50)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K50" s="7" t="e">
+        <v>88.505747126436788</v>
+      </c>
+      <c r="K50" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L50" s="6" t="e">
+        <v>26.551724137931036</v>
+      </c>
+      <c r="L50" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M50" s="6" t="e">
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="M50" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N50" s="6" t="e">
+        <v>0.93103448275862066</v>
+      </c>
+      <c r="N50" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -8976,37 +9008,45 @@
       <c r="C51" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="7" t="str">
+      <c r="D51" s="5">
+        <v>72</v>
+      </c>
+      <c r="E51" s="5">
+        <v>70</v>
+      </c>
+      <c r="F51" s="5">
+        <v>2</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7">
         <f t="shared" ref="H51:H52" si="27">IF(AND(ISNUMBER(E51), ISNUMBER(F51), ISNUMBER(G51)), E51 - (F51* 1/3), "")</f>
-        <v/>
+        <v>69.333333333333329</v>
       </c>
       <c r="I51" s="5">
         <f t="shared" ref="I51:I52" si="28">D51*1</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="7" t="e">
+        <v>72</v>
+      </c>
+      <c r="J51" s="7">
         <f t="shared" ref="J51:J52" si="29">(H51/I51)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K51" s="7" t="e">
+        <v>96.296296296296291</v>
+      </c>
+      <c r="K51" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L51" s="6" t="e">
+        <v>28.888888888888886</v>
+      </c>
+      <c r="L51" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M51" s="6" t="e">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="M51" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N51" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="N51" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -9017,37 +9057,45 @@
       <c r="C52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="7" t="str">
+      <c r="D52" s="5">
+        <v>50</v>
+      </c>
+      <c r="E52" s="5">
+        <v>47</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5">
+        <v>3</v>
+      </c>
+      <c r="H52" s="7">
         <f t="shared" si="27"/>
-        <v/>
+        <v>47</v>
       </c>
       <c r="I52" s="5">
         <f t="shared" si="28"/>
+        <v>50</v>
+      </c>
+      <c r="J52" s="7">
+        <f t="shared" si="29"/>
+        <v>94</v>
+      </c>
+      <c r="K52" s="7">
+        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
+        <v>28.2</v>
+      </c>
+      <c r="L52" s="6">
+        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
+        <v>0.94</v>
+      </c>
+      <c r="M52" s="6">
+        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
+        <v>0.94</v>
+      </c>
+      <c r="N52" s="6">
+        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
         <v>0</v>
-      </c>
-      <c r="J52" s="7" t="e">
-        <f t="shared" si="29"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K52" s="7" t="e">
-        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L52" s="6" t="e">
-        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M52" s="6" t="e">
-        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N52" s="6" t="e">
-        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -9060,37 +9108,45 @@
       <c r="C53" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="7" t="str">
+      <c r="D53" s="5">
+        <v>37</v>
+      </c>
+      <c r="E53" s="5">
+        <v>34</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1</v>
+      </c>
+      <c r="G53" s="5">
+        <v>2</v>
+      </c>
+      <c r="H53" s="7">
         <f>IF(AND(ISNUMBER(E53), ISNUMBER(F53), ISNUMBER(G53)), E53 - (F53* 1/3), "")</f>
-        <v/>
+        <v>33.666666666666664</v>
       </c>
       <c r="I53" s="5">
         <f>D53*1</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="7" t="e">
+        <v>37</v>
+      </c>
+      <c r="J53" s="7">
         <f>(H53/I53)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K53" s="7" t="e">
+        <v>90.99099099099098</v>
+      </c>
+      <c r="K53" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L53" s="6" t="e">
+        <v>27.297297297297295</v>
+      </c>
+      <c r="L53" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M53" s="6" t="e">
+        <v>0.91891891891891897</v>
+      </c>
+      <c r="M53" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N53" s="6" t="e">
+        <v>0.94594594594594594</v>
+      </c>
+      <c r="N53" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>2.7027027027027029E-2</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -9101,37 +9157,45 @@
       <c r="C54" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="7" t="str">
+      <c r="D54" s="5">
+        <v>22</v>
+      </c>
+      <c r="E54" s="5">
+        <v>22</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7">
         <f t="shared" ref="H54:H55" si="30">IF(AND(ISNUMBER(E54), ISNUMBER(F54), ISNUMBER(G54)), E54 - (F54* 1/3), "")</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="I54" s="5">
         <f t="shared" ref="I54:I55" si="31">D54*1</f>
+        <v>22</v>
+      </c>
+      <c r="J54" s="7">
+        <f t="shared" ref="J54:J55" si="32">(H54/I54)*100</f>
+        <v>100</v>
+      </c>
+      <c r="K54" s="7">
+        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
+        <v>30</v>
+      </c>
+      <c r="L54" s="6">
+        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
+        <v>1</v>
+      </c>
+      <c r="M54" s="6">
+        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
+        <v>1</v>
+      </c>
+      <c r="N54" s="6">
+        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
         <v>0</v>
-      </c>
-      <c r="J54" s="7" t="e">
-        <f t="shared" ref="J54:J55" si="32">(H54/I54)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K54" s="7" t="e">
-        <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L54" s="6" t="e">
-        <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M54" s="6" t="e">
-        <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N54" s="6" t="e">
-        <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -9142,37 +9206,45 @@
       <c r="C55" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="7" t="str">
+      <c r="D55" s="5">
+        <v>50</v>
+      </c>
+      <c r="E55" s="5">
+        <v>46</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1</v>
+      </c>
+      <c r="G55" s="5">
+        <v>3</v>
+      </c>
+      <c r="H55" s="7">
         <f t="shared" si="30"/>
-        <v/>
+        <v>45.666666666666664</v>
       </c>
       <c r="I55" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="7" t="e">
+        <v>50</v>
+      </c>
+      <c r="J55" s="7">
         <f t="shared" si="32"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K55" s="7" t="e">
+        <v>91.333333333333329</v>
+      </c>
+      <c r="K55" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L55" s="6" t="e">
+        <v>27.4</v>
+      </c>
+      <c r="L55" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M55" s="6" t="e">
+        <v>0.92</v>
+      </c>
+      <c r="M55" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N55" s="6" t="e">
+        <v>0.94</v>
+      </c>
+      <c r="N55" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">

--- a/02062025-delhi-aiims-bsc-nursing-prepatory-data-set.xlsx
+++ b/02062025-delhi-aiims-bsc-nursing-prepatory-data-set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Github\student_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40D1423-A129-4090-9FB5-174E92414CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC6C330-4464-471F-8E89-0761C49C8E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5A00A1E-0852-4B43-B760-DC16954E0468}"/>
   </bookViews>
@@ -6477,8 +6477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345E9B88-8FA7-480F-BC36-23D2BE33213E}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="113" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="113" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6555,20 +6555,21 @@
         <v>7</v>
       </c>
       <c r="D2" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>100</v>
       </c>
       <c r="E2" s="5">
         <v>68</v>
       </c>
       <c r="F2" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="5">
         <v>17</v>
       </c>
       <c r="H2" s="7">
         <f>IF(AND(ISNUMBER(E2), ISNUMBER(F2), ISNUMBER(G2)), E2 - (F2* 1/3), "")</f>
-        <v>63.333333333333336</v>
+        <v>63</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2:I20" si="0">D2*1</f>
@@ -6576,11 +6577,11 @@
       </c>
       <c r="J2" s="7">
         <f>(H2/I2)*100</f>
-        <v>63.333333333333329</v>
+        <v>63</v>
       </c>
       <c r="K2" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>19</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="L2" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
@@ -6588,11 +6589,11 @@
       </c>
       <c r="M2" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="N2" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -6604,6 +6605,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>37</v>
       </c>
       <c r="E3" s="5">
@@ -6660,6 +6662,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>30</v>
       </c>
       <c r="E4" s="5">
@@ -6704,7 +6707,7 @@
       </c>
       <c r="Q4" s="10">
         <f>AVERAGE(M2:M16)</f>
-        <v>0.91119676269676286</v>
+        <v>0.91186342936342935</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6717,7 +6720,8 @@
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>32</v>
       </c>
       <c r="E5" s="5">
@@ -6762,7 +6766,7 @@
       </c>
       <c r="Q5" s="10">
         <f>AVERAGE(N2:N16)</f>
-        <v>7.0107005357005356E-2</v>
+        <v>7.0773672023672018E-2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,6 +6778,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>26</v>
       </c>
       <c r="E6" s="5">
@@ -6823,6 +6828,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>30</v>
       </c>
       <c r="E7" s="5">
@@ -6874,6 +6880,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>36</v>
       </c>
       <c r="E8" s="5">
@@ -6923,6 +6930,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>42</v>
       </c>
       <c r="E9" s="5">
@@ -6972,6 +6980,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>50</v>
       </c>
       <c r="E10" s="5">
@@ -7023,6 +7032,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>26</v>
       </c>
       <c r="E11" s="5">
@@ -7072,6 +7082,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>42</v>
       </c>
       <c r="E12" s="5">
@@ -7121,6 +7132,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>50</v>
       </c>
       <c r="E13" s="5">
@@ -7172,6 +7184,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>30</v>
       </c>
       <c r="E14" s="5">
@@ -7221,6 +7234,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>42</v>
       </c>
       <c r="E15" s="5">
@@ -7270,6 +7284,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>50</v>
       </c>
       <c r="E16" s="5">
@@ -7321,6 +7336,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>54</v>
       </c>
       <c r="E17" s="5">
@@ -7370,7 +7386,8 @@
         <v>9</v>
       </c>
       <c r="D18" s="5">
-        <v>62</v>
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
+        <v>61</v>
       </c>
       <c r="E18" s="5">
         <v>50</v>
@@ -7387,27 +7404,27 @@
       </c>
       <c r="I18" s="5">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" si="4"/>
-        <v>76.881720430107521</v>
+        <v>78.142076502732237</v>
       </c>
       <c r="K18" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>23.064516129032256</v>
+        <v>23.442622950819672</v>
       </c>
       <c r="L18" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>0.80645161290322576</v>
+        <v>0.81967213114754101</v>
       </c>
       <c r="M18" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>0.91935483870967738</v>
+        <v>0.93442622950819676</v>
       </c>
       <c r="N18" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>0.11290322580645161</v>
+        <v>0.11475409836065574</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -7419,6 +7436,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>50</v>
       </c>
       <c r="E19" s="5">
@@ -7470,6 +7488,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>27</v>
       </c>
       <c r="E20" s="5">
@@ -7519,6 +7538,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>55</v>
       </c>
       <c r="E21" s="5">
@@ -7568,6 +7588,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>50</v>
       </c>
       <c r="E22" s="5">
@@ -7619,6 +7640,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>24</v>
       </c>
       <c r="E23" s="5">
@@ -7668,6 +7690,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>18</v>
       </c>
       <c r="E24" s="5">
@@ -7717,6 +7740,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>50</v>
       </c>
       <c r="E25" s="5">
@@ -7768,6 +7792,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>45</v>
       </c>
       <c r="E26" s="5">
@@ -7817,6 +7842,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>25</v>
       </c>
       <c r="E27" s="5">
@@ -7866,6 +7892,7 @@
         <v>8</v>
       </c>
       <c r="D28" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>50</v>
       </c>
       <c r="E28" s="5">
@@ -7917,6 +7944,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>48</v>
       </c>
       <c r="E29" s="5">
@@ -7966,6 +7994,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>25</v>
       </c>
       <c r="E30" s="5">
@@ -8015,6 +8044,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>50</v>
       </c>
       <c r="E31" s="5">
@@ -8066,6 +8096,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>30</v>
       </c>
       <c r="E32" s="5">
@@ -8115,6 +8146,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>35</v>
       </c>
       <c r="E33" s="5">
@@ -8164,6 +8196,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>50</v>
       </c>
       <c r="E34" s="5">
@@ -8215,6 +8248,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>25</v>
       </c>
       <c r="E35" s="5">
@@ -8264,6 +8298,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>25</v>
       </c>
       <c r="E36" s="5">
@@ -8313,6 +8348,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>50</v>
       </c>
       <c r="E37" s="5">
@@ -8364,6 +8400,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>45</v>
       </c>
       <c r="E38" s="5">
@@ -8413,6 +8450,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>65</v>
       </c>
       <c r="E39" s="5">
@@ -8462,6 +8500,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>50</v>
       </c>
       <c r="E40" s="5">
@@ -8513,6 +8552,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>63</v>
       </c>
       <c r="E41" s="5">
@@ -8562,6 +8602,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>18</v>
       </c>
       <c r="E42" s="5">
@@ -8611,6 +8652,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>50</v>
       </c>
       <c r="E43" s="5">
@@ -8662,6 +8704,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>74</v>
       </c>
       <c r="E44" s="5">
@@ -8711,6 +8754,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>61</v>
       </c>
       <c r="E45" s="5">
@@ -8760,6 +8804,7 @@
         <v>8</v>
       </c>
       <c r="D46" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>50</v>
       </c>
       <c r="E46" s="5">
@@ -8811,6 +8856,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>19</v>
       </c>
       <c r="E47" s="5">
@@ -8860,6 +8906,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>25</v>
       </c>
       <c r="E48" s="5">
@@ -8909,6 +8956,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>50</v>
       </c>
       <c r="E49" s="5">
@@ -8960,6 +9008,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>29</v>
       </c>
       <c r="E50" s="5">
@@ -9009,6 +9058,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>72</v>
       </c>
       <c r="E51" s="5">
@@ -9058,6 +9108,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>50</v>
       </c>
       <c r="E52" s="5">
@@ -9109,6 +9160,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>37</v>
       </c>
       <c r="E53" s="5">
@@ -9158,6 +9210,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>22</v>
       </c>
       <c r="E54" s="5">
@@ -9207,6 +9260,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
         <v>50</v>
       </c>
       <c r="E55" s="5">
@@ -9257,37 +9311,46 @@
       <c r="C56" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="7" t="str">
+      <c r="D56" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
+        <v>50</v>
+      </c>
+      <c r="E56" s="5">
+        <v>47</v>
+      </c>
+      <c r="F56" s="5">
+        <v>2</v>
+      </c>
+      <c r="G56" s="5">
+        <v>1</v>
+      </c>
+      <c r="H56" s="7">
         <f>IF(AND(ISNUMBER(E56), ISNUMBER(F56), ISNUMBER(G56)), E56 - (F56* 1/3), "")</f>
-        <v/>
+        <v>46.333333333333336</v>
       </c>
       <c r="I56" s="5">
         <f>D56*1</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="7" t="e">
+        <v>50</v>
+      </c>
+      <c r="J56" s="7">
         <f>(H56/I56)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K56" s="7" t="e">
+        <v>92.666666666666671</v>
+      </c>
+      <c r="K56" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L56" s="6" t="e">
+        <v>27.800000000000004</v>
+      </c>
+      <c r="L56" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M56" s="6" t="e">
+        <v>0.94</v>
+      </c>
+      <c r="M56" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N56" s="6" t="e">
+        <v>0.98</v>
+      </c>
+      <c r="N56" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
@@ -9298,37 +9361,46 @@
       <c r="C57" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="7" t="str">
+      <c r="D57" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
+        <v>21</v>
+      </c>
+      <c r="E57" s="5">
+        <v>19</v>
+      </c>
+      <c r="F57" s="5">
+        <v>2</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0</v>
+      </c>
+      <c r="H57" s="7">
         <f t="shared" ref="H57:H58" si="33">IF(AND(ISNUMBER(E57), ISNUMBER(F57), ISNUMBER(G57)), E57 - (F57* 1/3), "")</f>
-        <v/>
+        <v>18.333333333333332</v>
       </c>
       <c r="I57" s="5">
         <f t="shared" ref="I57:I58" si="34">D57*1</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="7" t="e">
+        <v>21</v>
+      </c>
+      <c r="J57" s="7">
         <f t="shared" ref="J57:J58" si="35">(H57/I57)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K57" s="7" t="e">
+        <v>87.30158730158729</v>
+      </c>
+      <c r="K57" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L57" s="6" t="e">
+        <v>26.190476190476186</v>
+      </c>
+      <c r="L57" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M57" s="6" t="e">
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="M57" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N57" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="N57" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>9.5238095238095233E-2</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -9339,37 +9411,46 @@
       <c r="C58" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="7" t="str">
+      <c r="D58" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
+        <v>50</v>
+      </c>
+      <c r="E58" s="5">
+        <v>47</v>
+      </c>
+      <c r="F58" s="5">
+        <v>3</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0</v>
+      </c>
+      <c r="H58" s="7">
         <f t="shared" si="33"/>
-        <v/>
+        <v>46</v>
       </c>
       <c r="I58" s="5">
         <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="7" t="e">
+        <v>50</v>
+      </c>
+      <c r="J58" s="7">
         <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K58" s="7" t="e">
+        <v>92</v>
+      </c>
+      <c r="K58" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L58" s="6" t="e">
+        <v>27.6</v>
+      </c>
+      <c r="L58" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M58" s="6" t="e">
+        <v>0.94</v>
+      </c>
+      <c r="M58" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N58" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="N58" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -9999,6 +10080,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A70"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -10011,18 +10104,6 @@
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/02062025-delhi-aiims-bsc-nursing-prepatory-data-set.xlsx
+++ b/02062025-delhi-aiims-bsc-nursing-prepatory-data-set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Github\student_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC6C330-4464-471F-8E89-0761C49C8E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4804449-C70F-4697-AEC1-0C904CB2B77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5A00A1E-0852-4B43-B760-DC16954E0468}"/>
   </bookViews>
@@ -6478,7 +6478,7 @@
   <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" zoomScale="113" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9463,37 +9463,46 @@
       <c r="C59" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="7" t="str">
+      <c r="D59" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
+        <v>45</v>
+      </c>
+      <c r="E59" s="5">
+        <v>37</v>
+      </c>
+      <c r="F59" s="5">
+        <v>3</v>
+      </c>
+      <c r="G59" s="5">
+        <v>5</v>
+      </c>
+      <c r="H59" s="7">
         <f>IF(AND(ISNUMBER(E59), ISNUMBER(F59), ISNUMBER(G59)), E59 - (F59* 1/3), "")</f>
-        <v/>
+        <v>36</v>
       </c>
       <c r="I59" s="5">
         <f>D59*1</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="7" t="e">
+        <v>45</v>
+      </c>
+      <c r="J59" s="7">
         <f>(H59/I59)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K59" s="7" t="e">
+        <v>80</v>
+      </c>
+      <c r="K59" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L59" s="6" t="e">
+        <v>24</v>
+      </c>
+      <c r="L59" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M59" s="6" t="e">
+        <v>0.82222222222222219</v>
+      </c>
+      <c r="M59" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N59" s="6" t="e">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="N59" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -9504,37 +9513,46 @@
       <c r="C60" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="7" t="str">
+      <c r="D60" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
+        <v>61</v>
+      </c>
+      <c r="E60" s="5">
+        <v>52</v>
+      </c>
+      <c r="F60" s="5">
+        <v>5</v>
+      </c>
+      <c r="G60" s="5">
+        <v>4</v>
+      </c>
+      <c r="H60" s="7">
         <f t="shared" ref="H60:H61" si="36">IF(AND(ISNUMBER(E60), ISNUMBER(F60), ISNUMBER(G60)), E60 - (F60* 1/3), "")</f>
-        <v/>
+        <v>50.333333333333336</v>
       </c>
       <c r="I60" s="5">
         <f t="shared" ref="I60:I61" si="37">D60*1</f>
-        <v>0</v>
-      </c>
-      <c r="J60" s="7" t="e">
+        <v>61</v>
+      </c>
+      <c r="J60" s="7">
         <f t="shared" ref="J60:J61" si="38">(H60/I60)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K60" s="7" t="e">
+        <v>82.513661202185801</v>
+      </c>
+      <c r="K60" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L60" s="6" t="e">
+        <v>24.754098360655739</v>
+      </c>
+      <c r="L60" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M60" s="6" t="e">
+        <v>0.85245901639344257</v>
+      </c>
+      <c r="M60" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N60" s="6" t="e">
+        <v>0.93442622950819676</v>
+      </c>
+      <c r="N60" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>8.1967213114754092E-2</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -9545,37 +9563,46 @@
       <c r="C61" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="7" t="str">
+      <c r="D61" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
+        <v>50</v>
+      </c>
+      <c r="E61" s="5">
+        <v>48</v>
+      </c>
+      <c r="F61" s="5">
+        <v>1</v>
+      </c>
+      <c r="G61" s="5">
+        <v>1</v>
+      </c>
+      <c r="H61" s="7">
         <f t="shared" si="36"/>
-        <v/>
+        <v>47.666666666666664</v>
       </c>
       <c r="I61" s="5">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="7" t="e">
+        <v>50</v>
+      </c>
+      <c r="J61" s="7">
         <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K61" s="7" t="e">
+        <v>95.333333333333329</v>
+      </c>
+      <c r="K61" s="7">
         <f>(Table1[[#This Row],[marks]]/Table1[[#This Row],[total]])*30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L61" s="6" t="e">
+        <v>28.599999999999998</v>
+      </c>
+      <c r="L61" s="6">
         <f>Table1[[#This Row],[correct]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M61" s="6" t="e">
+        <v>0.96</v>
+      </c>
+      <c r="M61" s="6">
         <f>(Table1[[#This Row],[correct]]+Table1[[#This Row],[incorrect]])/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N61" s="6" t="e">
+        <v>0.98</v>
+      </c>
+      <c r="N61" s="6">
         <f>Table1[[#This Row],[incorrect]]/Table1[[#This Row],[total]]</f>
-        <v>#DIV/0!</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -9588,7 +9615,10 @@
       <c r="C62" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="5"/>
+      <c r="D62" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
+        <v>0</v>
+      </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -9629,7 +9659,10 @@
       <c r="C63" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="5"/>
+      <c r="D63" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
+        <v>0</v>
+      </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
@@ -9670,7 +9703,10 @@
       <c r="C64" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="5"/>
+      <c r="D64" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
+        <v>0</v>
+      </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -9713,7 +9749,10 @@
       <c r="C65" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="5"/>
+      <c r="D65" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
+        <v>0</v>
+      </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -9754,7 +9793,10 @@
       <c r="C66" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="5"/>
+      <c r="D66" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
+        <v>0</v>
+      </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
@@ -9795,7 +9837,10 @@
       <c r="C67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="5"/>
+      <c r="D67" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
+        <v>0</v>
+      </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -9838,7 +9883,10 @@
       <c r="C68" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="5"/>
+      <c r="D68" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
+        <v>0</v>
+      </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -9879,7 +9927,10 @@
       <c r="C69" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="5"/>
+      <c r="D69" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
+        <v>0</v>
+      </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -9920,7 +9971,10 @@
       <c r="C70" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="5"/>
+      <c r="D70" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
+        <v>0</v>
+      </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -9963,7 +10017,10 @@
       <c r="C71" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D71" s="5"/>
+      <c r="D71" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
+        <v>0</v>
+      </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
@@ -10004,7 +10061,10 @@
       <c r="C72" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="5"/>
+      <c r="D72" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
+        <v>0</v>
+      </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -10045,7 +10105,10 @@
       <c r="C73" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="5"/>
+      <c r="D73" s="5">
+        <f>SUM(Table1[[#This Row],[correct]:[unattempted]])</f>
+        <v>0</v>
+      </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -10080,6 +10143,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A41:A43"/>
@@ -10092,18 +10167,6 @@
     <mergeCell ref="A62:A64"/>
     <mergeCell ref="A65:A67"/>
     <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
